--- a/data/trans_orig/P34D1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34D1_2023-Edad-trans_orig.xlsx
@@ -694,7 +694,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -715,7 +715,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -731,12 +731,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>5,81%</t>
         </is>
       </c>
     </row>
@@ -758,12 +758,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,01%</t>
+          <t>16,93%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -779,12 +779,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24,26%</t>
+          <t>26,72%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -800,12 +800,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>14,72%</t>
         </is>
       </c>
     </row>
@@ -827,12 +827,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,73%</t>
+          <t>17,91%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>37,37%</t>
+          <t>36,9%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -848,12 +848,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>30,9%</t>
+          <t>33,95%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -869,12 +869,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>15,81%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>32,35%</t>
+          <t>31,32%</t>
         </is>
       </c>
     </row>
@@ -896,12 +896,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>16,85%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -917,12 +917,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>45,07%</t>
+          <t>44,23%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -938,12 +938,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>19,27%</t>
+          <t>18,92%</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>24,31%</t>
+          <t>23,63%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>46,64%</t>
+          <t>45,47%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -986,12 +986,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>13,82%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>48,15%</t>
+          <t>46,15%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1007,12 +1007,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>24,05%</t>
+          <t>24,14%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>41,67%</t>
+          <t>41,94%</t>
         </is>
       </c>
     </row>
@@ -1034,12 +1034,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,33%</t>
+          <t>21,86%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
@@ -1055,12 +1055,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>32,8%</t>
+          <t>31,83%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
@@ -1076,12 +1076,12 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>21,18%</t>
+          <t>20,74%</t>
         </is>
       </c>
     </row>
@@ -1103,12 +1103,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,41%</t>
+          <t>18,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>26,85%</t>
+          <t>25,76%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>17,85%</t>
+          <t>17,5%</t>
         </is>
       </c>
     </row>
@@ -1247,12 +1247,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>10,4%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1268,12 +1268,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1289,12 +1289,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>9,09%</t>
         </is>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1337,12 +1337,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17,36%</t>
+          <t>18,67%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>8,13%</t>
         </is>
       </c>
     </row>
@@ -1385,12 +1385,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>19,03%</t>
+          <t>19,09%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>37,95%</t>
+          <t>38,08%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1406,12 +1406,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>17,6%</t>
+          <t>16,76%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>45,36%</t>
+          <t>44,16%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1427,12 +1427,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>21,31%</t>
+          <t>21,75%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>37,0%</t>
+          <t>37,79%</t>
         </is>
       </c>
     </row>
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>25,23%</t>
+          <t>24,67%</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
@@ -1475,12 +1475,12 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>19,17%</t>
+          <t>18,62%</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
@@ -1496,12 +1496,12 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>19,55%</t>
+          <t>20,3%</t>
         </is>
       </c>
     </row>
@@ -1523,12 +1523,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18,31%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>38,93%</t>
+          <t>39,72%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1544,12 +1544,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>35,11%</t>
+          <t>33,92%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1565,12 +1565,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>18,32%</t>
+          <t>18,07%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>34,31%</t>
+          <t>32,76%</t>
         </is>
       </c>
     </row>
@@ -1592,12 +1592,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>26,18%</t>
+          <t>25,77%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1613,12 +1613,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>39,2%</t>
+          <t>40,19%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1634,12 +1634,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>12,74%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>27,37%</t>
+          <t>25,71%</t>
         </is>
       </c>
     </row>
@@ -1661,12 +1661,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>14,97%</t>
+          <t>14,87%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1682,12 +1682,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>18,92%</t>
+          <t>19,14%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1703,12 +1703,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>12,65%</t>
         </is>
       </c>
     </row>
@@ -1805,12 +1805,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1847,12 +1847,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>7,03%</t>
         </is>
       </c>
     </row>
@@ -1874,12 +1874,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>13,34%</t>
+          <t>13,63%</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
@@ -1900,7 +1900,7 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>9,32%</t>
         </is>
       </c>
       <c r="M21" s="2" t="n">
@@ -1916,12 +1916,12 @@
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>10,46%</t>
+          <t>10,8%</t>
         </is>
       </c>
     </row>
@@ -1943,12 +1943,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>11,66%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>24,51%</t>
+          <t>24,73%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -1964,19 +1964,19 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>17,49%</t>
+          <t>16,33%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>37,27%</t>
+          <t>37,0%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
         <v>46</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>40859</v>
+        <v>40860</v>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
@@ -1985,12 +1985,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>14,35%</t>
+          <t>14,89%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>25,81%</t>
+          <t>25,72%</t>
         </is>
       </c>
     </row>
@@ -2012,12 +2012,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>21,97%</t>
+          <t>22,78%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2033,12 +2033,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>19,52%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2054,12 +2054,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>19,03%</t>
+          <t>19,11%</t>
         </is>
       </c>
     </row>
@@ -2081,12 +2081,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>20,78%</t>
+          <t>20,43%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>36,76%</t>
+          <t>36,4%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2102,19 +2102,19 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>23,47%</t>
+          <t>23,46%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>43,98%</t>
+          <t>44,32%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
         <v>64</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>60024</v>
+        <v>60025</v>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
@@ -2123,12 +2123,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>23,1%</t>
+          <t>23,46%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>35,78%</t>
+          <t>36,27%</t>
         </is>
       </c>
     </row>
@@ -2150,12 +2150,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>12,2%</t>
+          <t>12,04%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>26,33%</t>
+          <t>25,08%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2171,12 +2171,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>11,61%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>29,98%</t>
+          <t>29,75%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2192,12 +2192,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>13,34%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>24,44%</t>
+          <t>24,17%</t>
         </is>
       </c>
     </row>
@@ -2219,12 +2219,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>17,54%</t>
+          <t>16,94%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>13,57%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2261,12 +2261,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>14,29%</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
         <v>214</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>205115</v>
+        <v>205116</v>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
@@ -2389,7 +2389,7 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
@@ -2405,12 +2405,12 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>5,57%</t>
         </is>
       </c>
     </row>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2458,7 +2458,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>9,11%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2474,12 +2474,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>6,23%</t>
         </is>
       </c>
     </row>
@@ -2501,12 +2501,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>12,49%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>28,14%</t>
+          <t>27,35%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
@@ -2522,12 +2522,12 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>12,25%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>35,56%</t>
+          <t>34,93%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
@@ -2543,12 +2543,12 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>15,05%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>27,73%</t>
+          <t>27,46%</t>
         </is>
       </c>
     </row>
@@ -2570,12 +2570,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>13,0%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>29,18%</t>
+          <t>29,44%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
@@ -2591,12 +2591,12 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>53,86%</t>
+          <t>53,18%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
@@ -2612,12 +2612,12 @@
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>12,84%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>33,87%</t>
+          <t>34,16%</t>
         </is>
       </c>
     </row>
@@ -2639,12 +2639,12 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>25,33%</t>
+          <t>25,9%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>44,4%</t>
+          <t>43,71%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
@@ -2660,12 +2660,12 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>16,23%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>42,31%</t>
+          <t>42,72%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2681,12 +2681,12 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>26,05%</t>
+          <t>25,76%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>40,47%</t>
+          <t>41,05%</t>
         </is>
       </c>
     </row>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>20,69%</t>
+          <t>20,34%</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>29,97%</t>
+          <t>29,05%</t>
         </is>
       </c>
       <c r="M33" s="2" t="n">
@@ -2750,12 +2750,12 @@
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>10,26%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>21,12%</t>
+          <t>20,88%</t>
         </is>
       </c>
     </row>
@@ -2777,12 +2777,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>15,48%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2798,12 +2798,12 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2819,12 +2819,12 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>12,71%</t>
         </is>
       </c>
     </row>
@@ -2921,12 +2921,12 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>19,41%</t>
+          <t>20,9%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
@@ -2942,12 +2942,12 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>30,32%</t>
+          <t>27,31%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
@@ -2963,12 +2963,12 @@
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>16,0%</t>
+          <t>16,35%</t>
         </is>
       </c>
     </row>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>16,61%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>11,17%</t>
         </is>
       </c>
     </row>
@@ -3059,12 +3059,12 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>33,36%</t>
+          <t>31,66%</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
@@ -3080,12 +3080,12 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>14,46%</t>
+          <t>15,96%</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>47,64%</t>
+          <t>47,97%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
@@ -3101,12 +3101,12 @@
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>14,19%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>33,1%</t>
+          <t>32,7%</t>
         </is>
       </c>
     </row>
@@ -3128,12 +3128,12 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>23,61%</t>
+          <t>23,25%</t>
         </is>
       </c>
       <c r="H39" s="2" t="n">
@@ -3149,12 +3149,12 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>23,94%</t>
+          <t>27,68%</t>
         </is>
       </c>
       <c r="M39" s="2" t="n">
@@ -3170,12 +3170,12 @@
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
         <is>
-          <t>19,98%</t>
+          <t>20,66%</t>
         </is>
       </c>
     </row>
@@ -3197,12 +3197,12 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>10,16%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>34,41%</t>
+          <t>32,88%</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
@@ -3218,12 +3218,12 @@
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>29,75%</t>
+          <t>30,55%</t>
         </is>
       </c>
       <c r="M40" s="2" t="n">
@@ -3239,12 +3239,12 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>11,37%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t>28,78%</t>
+          <t>28,57%</t>
         </is>
       </c>
     </row>
@@ -3266,12 +3266,12 @@
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>32,98%</t>
+          <t>32,18%</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
@@ -3287,12 +3287,12 @@
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>13,38%</t>
+          <t>14,19%</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>47,53%</t>
+          <t>46,73%</t>
         </is>
       </c>
       <c r="M41" s="2" t="n">
@@ -3308,12 +3308,12 @@
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>13,0%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>32,55%</t>
+          <t>32,05%</t>
         </is>
       </c>
     </row>
@@ -3335,12 +3335,12 @@
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>31,36%</t>
+          <t>30,57%</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
@@ -3361,7 +3361,7 @@
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>23,74%</t>
+          <t>21,69%</t>
         </is>
       </c>
       <c r="M42" s="2" t="n">
@@ -3377,12 +3377,12 @@
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>24,53%</t>
+          <t>23,83%</t>
         </is>
       </c>
     </row>
@@ -3479,12 +3479,12 @@
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>28,65%</t>
+          <t>28,61%</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
@@ -3505,7 +3505,7 @@
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>51,54%</t>
+          <t>50,32%</t>
         </is>
       </c>
       <c r="M44" s="2" t="n">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t>29,25%</t>
+          <t>28,83%</t>
         </is>
       </c>
     </row>
@@ -3548,12 +3548,12 @@
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>25,78%</t>
+          <t>26,54%</t>
         </is>
       </c>
       <c r="H45" s="2" t="n">
@@ -3590,12 +3590,12 @@
       </c>
       <c r="P45" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="Q45" s="2" t="inlineStr">
         <is>
-          <t>23,07%</t>
+          <t>21,54%</t>
         </is>
       </c>
     </row>
@@ -3617,12 +3617,12 @@
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>39,45%</t>
+          <t>38,13%</t>
         </is>
       </c>
       <c r="H46" s="2" t="n">
@@ -3638,12 +3638,12 @@
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>57,03%</t>
+          <t>55,78%</t>
         </is>
       </c>
       <c r="M46" s="2" t="n">
@@ -3659,12 +3659,12 @@
       </c>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>10,99%</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
         <is>
-          <t>37,04%</t>
+          <t>36,59%</t>
         </is>
       </c>
     </row>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>22,52%</t>
+          <t>21,26%</t>
         </is>
       </c>
       <c r="H47" s="2" t="n">
@@ -3712,7 +3712,7 @@
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>51,28%</t>
+          <t>49,78%</t>
         </is>
       </c>
       <c r="M47" s="2" t="n">
@@ -3728,12 +3728,12 @@
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
         <is>
-          <t>22,79%</t>
+          <t>20,88%</t>
         </is>
       </c>
     </row>
@@ -3755,12 +3755,12 @@
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>30,97%</t>
+          <t>29,87%</t>
         </is>
       </c>
       <c r="H48" s="2" t="n">
@@ -3781,7 +3781,7 @@
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>50,42%</t>
+          <t>48,53%</t>
         </is>
       </c>
       <c r="M48" s="2" t="n">
@@ -3797,12 +3797,12 @@
       </c>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
         <is>
-          <t>28,86%</t>
+          <t>28,23%</t>
         </is>
       </c>
     </row>
@@ -3824,12 +3824,12 @@
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>15,95%</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>47,6%</t>
+          <t>48,55%</t>
         </is>
       </c>
       <c r="H49" s="2" t="n">
@@ -3850,7 +3850,7 @@
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>47,36%</t>
+          <t>48,53%</t>
         </is>
       </c>
       <c r="M49" s="2" t="n">
@@ -3866,12 +3866,12 @@
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>15,67%</t>
+          <t>14,76%</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
         <is>
-          <t>40,1%</t>
+          <t>40,76%</t>
         </is>
       </c>
     </row>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="H50" s="2" t="n">
@@ -3919,7 +3919,7 @@
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>55,43%</t>
+          <t>53,41%</t>
         </is>
       </c>
       <c r="M50" s="2" t="n">
@@ -3940,7 +3940,7 @@
       </c>
       <c r="Q50" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>10,62%</t>
         </is>
       </c>
     </row>
@@ -4037,12 +4037,12 @@
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="H52" s="2" t="n">
@@ -4058,12 +4058,12 @@
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="M52" s="2" t="n">
@@ -4079,12 +4079,12 @@
       </c>
       <c r="P52" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="Q52" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>5,43%</t>
         </is>
       </c>
     </row>
@@ -4106,12 +4106,12 @@
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="H53" s="2" t="n">
@@ -4127,12 +4127,12 @@
       </c>
       <c r="K53" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="M53" s="2" t="n">
@@ -4148,12 +4148,12 @@
       </c>
       <c r="P53" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="Q53" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>7,48%</t>
         </is>
       </c>
     </row>
@@ -4175,12 +4175,12 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>18,72%</t>
+          <t>18,68%</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>26,68%</t>
+          <t>27,35%</t>
         </is>
       </c>
       <c r="H54" s="2" t="n">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="K54" s="2" t="inlineStr">
         <is>
-          <t>19,22%</t>
+          <t>19,08%</t>
         </is>
       </c>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>30,42%</t>
+          <t>30,76%</t>
         </is>
       </c>
       <c r="M54" s="2" t="n">
@@ -4217,12 +4217,12 @@
       </c>
       <c r="P54" s="2" t="inlineStr">
         <is>
-          <t>20,04%</t>
+          <t>19,94%</t>
         </is>
       </c>
       <c r="Q54" s="2" t="inlineStr">
         <is>
-          <t>26,37%</t>
+          <t>26,68%</t>
         </is>
       </c>
     </row>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>10,06%</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>16,86%</t>
         </is>
       </c>
       <c r="H55" s="2" t="n">
@@ -4265,12 +4265,12 @@
       </c>
       <c r="K55" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>24,24%</t>
+          <t>24,61%</t>
         </is>
       </c>
       <c r="M55" s="2" t="n">
@@ -4286,12 +4286,12 @@
       </c>
       <c r="P55" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>10,83%</t>
         </is>
       </c>
       <c r="Q55" s="2" t="inlineStr">
         <is>
-          <t>17,0%</t>
+          <t>16,91%</t>
         </is>
       </c>
     </row>
@@ -4313,12 +4313,12 @@
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>25,49%</t>
+          <t>24,82%</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>34,04%</t>
+          <t>33,55%</t>
         </is>
       </c>
       <c r="H56" s="2" t="n">
@@ -4334,12 +4334,12 @@
       </c>
       <c r="K56" s="2" t="inlineStr">
         <is>
-          <t>20,79%</t>
+          <t>20,45%</t>
         </is>
       </c>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>33,43%</t>
+          <t>31,98%</t>
         </is>
       </c>
       <c r="M56" s="2" t="n">
@@ -4355,12 +4355,12 @@
       </c>
       <c r="P56" s="2" t="inlineStr">
         <is>
-          <t>25,27%</t>
+          <t>24,71%</t>
         </is>
       </c>
       <c r="Q56" s="2" t="inlineStr">
         <is>
-          <t>32,29%</t>
+          <t>32,14%</t>
         </is>
       </c>
     </row>
@@ -4382,12 +4382,12 @@
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>12,66%</t>
         </is>
       </c>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>19,5%</t>
         </is>
       </c>
       <c r="H57" s="2" t="n">
@@ -4403,12 +4403,12 @@
       </c>
       <c r="K57" s="2" t="inlineStr">
         <is>
-          <t>14,96%</t>
+          <t>14,24%</t>
         </is>
       </c>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>26,01%</t>
+          <t>25,08%</t>
         </is>
       </c>
       <c r="M57" s="2" t="n">
@@ -4424,12 +4424,12 @@
       </c>
       <c r="P57" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>14,06%</t>
         </is>
       </c>
       <c r="Q57" s="2" t="inlineStr">
         <is>
-          <t>20,09%</t>
+          <t>19,98%</t>
         </is>
       </c>
     </row>
@@ -4442,7 +4442,7 @@
         <v>46</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>60834</v>
+        <v>60835</v>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
@@ -4451,12 +4451,12 @@
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>12,94%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="H58" s="2" t="n">
@@ -4472,12 +4472,12 @@
       </c>
       <c r="K58" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="M58" s="2" t="n">
@@ -4493,12 +4493,12 @@
       </c>
       <c r="P58" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="Q58" s="2" t="inlineStr">
         <is>
-          <t>11,45%</t>
+          <t>11,19%</t>
         </is>
       </c>
     </row>
@@ -4513,7 +4513,7 @@
         <v>510</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>645028</v>
+        <v>645029</v>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>

--- a/data/trans_orig/P34D1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34D1_2023-Edad-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal original" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,7 +537,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el número de días en los que realizó actividades físicas intensas durante los últimos 7 días en 2023 (Tasa respuesta: 8,94%)</t>
+          <t>Población según el número de días en los que realizó actividades físicas intensas durante los últimos 7 días en 2023 (Tasa respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -684,7 +684,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -694,7 +694,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -705,7 +705,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -726,17 +726,17 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>1,73%</t>
         </is>
       </c>
     </row>
@@ -753,38 +753,38 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>8,44%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
         <v>4</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>5383</v>
+        <v>5384</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>26,72%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -795,17 +795,17 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>14,72%</t>
+          <t>4,93%</t>
         </is>
       </c>
     </row>
@@ -822,17 +822,17 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>26,2%</t>
+          <t>12,76%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,91%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>36,9%</t>
+          <t>19,25%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -843,17 +843,17 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,52%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>33,95%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -864,17 +864,17 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>23,43%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>31,32%</t>
+          <t>11,15%</t>
         </is>
       </c>
     </row>
@@ -891,17 +891,17 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,85%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -912,17 +912,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,96%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>44,23%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -933,17 +933,17 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>11,75%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>18,92%</t>
+          <t>6,54%</t>
         </is>
       </c>
     </row>
@@ -960,17 +960,17 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>33,61%</t>
+          <t>16,37%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>23,63%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>45,47%</t>
+          <t>22,62%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -981,38 +981,38 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>27,93%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>46,15%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
         <v>39</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>77773</v>
+        <v>77774</v>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>32,26%</t>
+          <t>10,62%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>24,14%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>41,94%</t>
+          <t>14,5%</t>
         </is>
       </c>
     </row>
@@ -1029,17 +1029,17 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,15%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,86%</t>
+          <t>11,25%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
@@ -1050,17 +1050,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,3%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>31,83%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>13,66%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>20,74%</t>
+          <t>7,34%</t>
         </is>
       </c>
     </row>
@@ -1098,28 +1098,28 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>9,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
         <v>2</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>4546</v>
+        <v>4547</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>25,76%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1140,2707 +1140,2707 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>5,66%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>193773</v>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>51,31%</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>43,48%</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>59,47%</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>297793</v>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>83,9%</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>77,63%</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>89,0%</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>258</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>491565</v>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>67,1%</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>61,78%</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>71,81%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>88</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>183906</v>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>57164</v>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>121</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>241070</v>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="Q11" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="C12" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>377679</v>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>354957</v>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>379</v>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>732636</v>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>25/34</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B13" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C13" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D13" s="2" t="n">
         <v>5501</v>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>4,1%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,18%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>10,4%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>3623</v>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>5,86%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>1,65%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>16,66%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>9124</v>
-      </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>4,65%</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>1,91%</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
-        <is>
-          <t>9,09%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>3819</v>
-      </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
         <v>3</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>3495</v>
+        <v>3623</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,67%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>7314</v>
+        <v>9124</v>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>2,12%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>37643</v>
+        <v>3819</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>28,05%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>0,04%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>38,08%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>18660</v>
+        <v>3495</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>30,18%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>16,76%</t>
+          <t>0,03%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>44,16%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>56303</v>
+        <v>7314</v>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>28,72%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>21,75%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>37,79%</t>
+          <t>1,92%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>18506</v>
+        <v>37643</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,79%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,67%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>4826</v>
+        <v>18660</v>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>18,62%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>23331</v>
+        <v>56303</v>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>11,9%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>20,3%</t>
+          <t>8,33%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>37074</v>
+        <v>18506</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>27,62%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>39,72%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>12663</v>
+        <v>4826</v>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>20,48%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>33,92%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>49737</v>
+        <v>23331</v>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>25,37%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>18,07%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>32,76%</t>
+          <t>4,43%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>21472</v>
+        <v>37074</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,0%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>25,77%</t>
+          <t>12,49%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>14764</v>
+        <v>12663</v>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>23,88%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>40,19%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>36236</v>
+        <v>49737</v>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>18,48%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>12,74%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>25,71%</t>
+          <t>7,43%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>10205</v>
+        <v>21472</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>14,87%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>3799</v>
+        <v>14764</v>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>19,14%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>14003</v>
+        <v>36236</v>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>12,65%</t>
+          <t>6,01%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+      <c r="B19" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>134219</v>
+        <v>10205</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>61830</v>
+        <v>3799</v>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>196049</v>
+        <v>14003</v>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>2,76%</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>35/44</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>5</v>
+        <v>211</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>5354</v>
+        <v>294017</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>68,66%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>62,79%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>73,64%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
-        <v>2</v>
+        <v>411</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>1660</v>
+        <v>436747</v>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>87,6%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,6%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>90,93%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
-        <v>7</v>
+        <v>622</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>7014</v>
+        <v>730764</v>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>78,85%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>75,04%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>81,68%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="n">
-        <v>6</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>10</v>
+        <v>301</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>10962</v>
+        <v>428236</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>13,63%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
+        <v>460</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>498577</v>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>761</v>
+      </c>
+      <c r="N21" s="2" t="n">
+        <v>926813</v>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>35/44</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>5354</v>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0,96%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>0,32%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>2,14%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="I21" s="2" t="n">
-        <v>1529</v>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>2,63%</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
+      <c r="I22" s="2" t="n">
+        <v>1660</v>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>0,28%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>9,32%</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="N21" s="2" t="n">
-        <v>12492</v>
-      </c>
-      <c r="O21" s="2" t="inlineStr">
-        <is>
-          <t>6,09%</t>
-        </is>
-      </c>
-      <c r="P21" s="2" t="inlineStr">
-        <is>
-          <t>3,04%</t>
-        </is>
-      </c>
-      <c r="Q21" s="2" t="inlineStr">
-        <is>
-          <t>10,8%</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>25801</v>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>17,57%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>11,66%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>24,73%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>15058</v>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>25,85%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>16,33%</t>
-        </is>
-      </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>37,0%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>40860</v>
+        <v>7014</v>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>19,92%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>14,89%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>25,72%</t>
+          <t>1,27%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>21344</v>
+        <v>10962</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>14,53%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>22,78%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>6204</v>
+        <v>1529</v>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>19,52%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>27548</v>
+        <v>12492</v>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>19,11%</t>
+          <t>1,95%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>40971</v>
+        <v>25801</v>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>27,9%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>36,4%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>19054</v>
+        <v>15058</v>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>32,71%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>23,46%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>44,32%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>60025</v>
+        <v>40859</v>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>29,26%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>23,46%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>36,27%</t>
+          <t>4,84%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>26817</v>
+        <v>21344</v>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>18,26%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>12,04%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>25,08%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>11016</v>
+        <v>6204</v>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>18,91%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>29,75%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>37833</v>
+        <v>27548</v>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>18,44%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>13,34%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>24,17%</t>
+          <t>3,57%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>15617</v>
+        <v>40971</v>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>16,94%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>3729</v>
+        <v>19054</v>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>19345</v>
+        <v>60024</v>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>14,29%</t>
+          <t>6,64%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+      <c r="B27" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>146866</v>
+        <v>26817</v>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>58250</v>
+        <v>11016</v>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="M27" s="2" t="n">
-        <v>214</v>
+        <v>41</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>205116</v>
+        <v>37833</v>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>4,59%</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>45/54</t>
-        </is>
-      </c>
+      <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>2263</v>
+        <v>15617</v>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>1395</v>
+        <v>3729</v>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>3658</v>
+        <v>19345</v>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>2,62%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>4</v>
+        <v>411</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>2684</v>
+        <v>410386</v>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>73,64%</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>69,11%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>77,32%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
-        <v>2</v>
+        <v>766</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>1267</v>
+        <v>524488</v>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>90,0%</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,66%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
+          <t>91,87%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
-        <v>6</v>
+        <v>1177</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>3951</v>
+        <v>934875</v>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>82,01%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>79,68%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>84,1%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
-      <c r="B30" s="3" t="n">
-        <v>5</v>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>22</v>
+        <v>546</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>21290</v>
+        <v>557252</v>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>19,23%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>12,49%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>27,35%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
-        <v>18</v>
+        <v>845</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>11292</v>
+        <v>582738</v>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>23,24%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>34,93%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
-        <v>40</v>
+        <v>1391</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>32582</v>
+        <v>1139990</v>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>20,46%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>27,46%</t>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n"/>
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>45/54</t>
+        </is>
+      </c>
       <c r="B31" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>2263</v>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>0,31%</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>0,95%</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>1395</v>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>0,19%</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>0,62%</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C31" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>22337</v>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>20,18%</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>13,0%</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="inlineStr">
-        <is>
-          <t>29,44%</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>9426</v>
-      </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>19,4%</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>2,71%</t>
-        </is>
-      </c>
-      <c r="L31" s="2" t="inlineStr">
-        <is>
-          <t>53,18%</t>
-        </is>
-      </c>
-      <c r="M31" s="2" t="n">
-        <v>24</v>
-      </c>
       <c r="N31" s="2" t="n">
-        <v>31763</v>
+        <v>3658</v>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>34,16%</t>
+          <t>0,67%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>38355</v>
+        <v>2684</v>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>34,65%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>25,9%</t>
+          <t>0,05%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>43,71%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>14449</v>
+        <v>1267</v>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>29,73%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>16,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>42,72%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>52803</v>
+        <v>3951</v>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>33,15%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>25,76%</t>
+          <t>0,09%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>41,05%</t>
+          <t>0,66%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
       <c r="B33" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>14366</v>
+        <v>21290</v>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>8802</v>
+        <v>11292</v>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>18,11%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>29,05%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="M33" s="2" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>23168</v>
+        <v>32582</v>
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>10,26%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>3,03%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>9396</v>
+        <v>22337</v>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>15,48%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
         <v>4</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>1965</v>
+        <v>9426</v>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>10,3%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>11360</v>
+        <v>31763</v>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>4,16%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n"/>
-      <c r="B35" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+      <c r="B35" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>110690</v>
+        <v>38354</v>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>48595</v>
+        <v>14448</v>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
-        <v>177</v>
+        <v>60</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>159284</v>
+        <v>52803</v>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>4,62%</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>55/64</t>
-        </is>
-      </c>
+      <c r="A36" s="1" t="n"/>
       <c r="B36" s="3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>3169</v>
+        <v>14366</v>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>20,9%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>2163</v>
+        <v>8802</v>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>27,31%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>5331</v>
+        <v>23168</v>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>16,35%</t>
+          <t>2,28%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>2305</v>
+        <v>9395</v>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0</v>
+        <v>1965</v>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,06%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>2305</v>
+        <v>11360</v>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>1,27%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>10</v>
+        <v>556</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>8961</v>
+        <v>613300</v>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>19,68%</t>
+          <t>84,71%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>81,7%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>31,66%</t>
+          <t>88,44%</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
-        <v>10</v>
+        <v>1071</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>5610</v>
+        <v>697589</v>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>30,08%</t>
+          <t>93,49%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>15,96%</t>
+          <t>89,74%</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>47,97%</t>
+          <t>94,98%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
-        <v>20</v>
+        <v>1627</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>14571</v>
+        <v>1310890</v>
       </c>
       <c r="O38" s="2" t="inlineStr">
         <is>
-          <t>22,7%</t>
+          <t>89,17%</t>
         </is>
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>14,19%</t>
+          <t>87,18%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>32,7%</t>
+          <t>90,9%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n"/>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>665</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>723990</v>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>1139</v>
+      </c>
+      <c r="I39" s="2" t="n">
+        <v>746184</v>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="n">
+        <v>1804</v>
+      </c>
+      <c r="N39" s="2" t="n">
+        <v>1470174</v>
+      </c>
+      <c r="O39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>55/64</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C40" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C39" s="2" t="n">
+      <c r="D40" s="2" t="n">
+        <v>3169</v>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>0,53%</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>0,16%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>1,53%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I40" s="2" t="n">
+        <v>2163</v>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>0,36%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>0,12%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>0,98%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="D39" s="2" t="n">
-        <v>5532</v>
-      </c>
-      <c r="E39" s="2" t="inlineStr">
-        <is>
-          <t>12,15%</t>
-        </is>
-      </c>
-      <c r="F39" s="2" t="inlineStr">
-        <is>
-          <t>5,25%</t>
-        </is>
-      </c>
-      <c r="G39" s="2" t="inlineStr">
-        <is>
-          <t>23,25%</t>
-        </is>
-      </c>
-      <c r="H39" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="I39" s="2" t="n">
-        <v>1901</v>
-      </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>10,19%</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="inlineStr">
-        <is>
-          <t>3,25%</t>
-        </is>
-      </c>
-      <c r="L39" s="2" t="inlineStr">
-        <is>
-          <t>27,68%</t>
-        </is>
-      </c>
-      <c r="M39" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="N39" s="2" t="n">
-        <v>7432</v>
-      </c>
-      <c r="O39" s="2" t="inlineStr">
-        <is>
-          <t>11,58%</t>
-        </is>
-      </c>
-      <c r="P39" s="2" t="inlineStr">
-        <is>
-          <t>5,76%</t>
-        </is>
-      </c>
-      <c r="Q39" s="2" t="inlineStr">
-        <is>
-          <t>20,66%</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n"/>
-      <c r="B40" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>9182</v>
-      </c>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t>20,16%</t>
-        </is>
-      </c>
-      <c r="F40" s="2" t="inlineStr">
-        <is>
-          <t>10,16%</t>
-        </is>
-      </c>
-      <c r="G40" s="2" t="inlineStr">
-        <is>
-          <t>32,88%</t>
-        </is>
-      </c>
-      <c r="H40" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I40" s="2" t="n">
-        <v>2496</v>
-      </c>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>13,38%</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="inlineStr">
-        <is>
-          <t>4,63%</t>
-        </is>
-      </c>
-      <c r="L40" s="2" t="inlineStr">
-        <is>
-          <t>30,55%</t>
-        </is>
-      </c>
-      <c r="M40" s="2" t="n">
-        <v>17</v>
-      </c>
       <c r="N40" s="2" t="n">
-        <v>11678</v>
+        <v>5331</v>
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>18,19%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t>28,57%</t>
+          <t>0,89%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n"/>
       <c r="B41" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C41" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C41" s="2" t="n">
-        <v>10</v>
-      </c>
       <c r="D41" s="2" t="n">
-        <v>8564</v>
+        <v>2305</v>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>18,8%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>32,18%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>5158</v>
+        <v>0</v>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>27,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>14,19%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>46,73%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="M41" s="2" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>13721</v>
+        <v>2305</v>
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>21,38%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>13,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>32,05%</t>
+          <t>0,68%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>7828</v>
+        <v>8961</v>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>30,57%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>1324</v>
+        <v>5610</v>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>21,69%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="M42" s="2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>9151</v>
+        <v>14571</v>
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>14,26%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>23,83%</t>
+          <t>1,93%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n"/>
-      <c r="B43" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+      <c r="B43" s="3" t="n">
+        <v>4</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45540</v>
+        <v>5532</v>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>18651</v>
+        <v>1901</v>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="M43" s="2" t="n">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>64190</v>
+        <v>7433</v>
       </c>
       <c r="O43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1,15%</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>65 y más</t>
-        </is>
-      </c>
+      <c r="A44" s="1" t="n"/>
       <c r="B44" s="3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C44" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>9182</v>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>1,53%</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>0,74%</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>2,69%</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D44" s="2" t="n">
-        <v>3301</v>
-      </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>13,87%</t>
-        </is>
-      </c>
-      <c r="F44" s="2" t="inlineStr">
-        <is>
-          <t>5,16%</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="inlineStr">
-        <is>
-          <t>28,61%</t>
-        </is>
-      </c>
-      <c r="H44" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="I44" s="2" t="n">
-        <v>941</v>
+        <v>2496</v>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>17,87%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>50,32%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="M44" s="2" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N44" s="2" t="n">
-        <v>4242</v>
+        <v>11678</v>
       </c>
       <c r="O44" s="2" t="inlineStr">
         <is>
-          <t>14,59%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t>28,83%</t>
+          <t>1,64%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n"/>
       <c r="B45" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>2801</v>
+        <v>8564</v>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>11,77%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>26,54%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="H45" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>0</v>
+        <v>5158</v>
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="M45" s="2" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="N45" s="2" t="n">
-        <v>2801</v>
+        <v>13721</v>
       </c>
       <c r="O45" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="P45" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="Q45" s="2" t="inlineStr">
         <is>
-          <t>21,54%</t>
+          <t>1,9%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>8</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>5356</v>
+        <v>7828</v>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>22,49%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>38,13%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="H46" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>1258</v>
+        <v>1324</v>
       </c>
       <c r="J46" s="2" t="inlineStr">
         <is>
-          <t>23,9%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>55,78%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="M46" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N46" s="2" t="n">
-        <v>6614</v>
+        <v>9152</v>
       </c>
       <c r="O46" s="2" t="inlineStr">
         <is>
-          <t>22,75%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
         <is>
-          <t>36,59%</t>
+          <t>1,4%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n"/>
       <c r="B47" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>2</v>
+        <v>610</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>1668</v>
+        <v>554617</v>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>92,41%</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,24%</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>21,26%</t>
+          <t>94,46%</t>
         </is>
       </c>
       <c r="H47" s="2" t="n">
-        <v>1</v>
+        <v>970</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>615</v>
+        <v>575650</v>
       </c>
       <c r="J47" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>96,86%</t>
         </is>
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,68%</t>
         </is>
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>49,78%</t>
+          <t>97,82%</t>
         </is>
       </c>
       <c r="M47" s="2" t="n">
-        <v>3</v>
+        <v>1580</v>
       </c>
       <c r="N47" s="2" t="n">
-        <v>2283</v>
+        <v>1130268</v>
       </c>
       <c r="O47" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>94,63%</t>
         </is>
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>93,38%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>95,74%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n"/>
-      <c r="B48" s="3" t="n">
-        <v>3</v>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
       </c>
       <c r="C48" s="2" t="n">
+        <v>663</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>600157</v>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>1001</v>
+      </c>
+      <c r="I48" s="2" t="n">
+        <v>594301</v>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="n">
+        <v>1664</v>
+      </c>
+      <c r="N48" s="2" t="n">
+        <v>1194458</v>
+      </c>
+      <c r="O48" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P48" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q48" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>65 y más</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C49" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D48" s="2" t="n">
-        <v>3557</v>
-      </c>
-      <c r="E48" s="2" t="inlineStr">
-        <is>
-          <t>14,94%</t>
-        </is>
-      </c>
-      <c r="F48" s="2" t="inlineStr">
-        <is>
-          <t>5,6%</t>
-        </is>
-      </c>
-      <c r="G48" s="2" t="inlineStr">
-        <is>
-          <t>29,87%</t>
-        </is>
-      </c>
-      <c r="H48" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" s="2" t="n">
-        <v>877</v>
-      </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>16,67%</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L48" s="2" t="inlineStr">
-        <is>
-          <t>48,53%</t>
-        </is>
-      </c>
-      <c r="M48" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="N48" s="2" t="n">
-        <v>4434</v>
-      </c>
-      <c r="O48" s="2" t="inlineStr">
-        <is>
-          <t>15,25%</t>
-        </is>
-      </c>
-      <c r="P48" s="2" t="inlineStr">
-        <is>
-          <t>6,51%</t>
-        </is>
-      </c>
-      <c r="Q48" s="2" t="inlineStr">
-        <is>
-          <t>28,23%</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n"/>
-      <c r="B49" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C49" s="2" t="n">
-        <v>10</v>
-      </c>
       <c r="D49" s="2" t="n">
-        <v>6966</v>
+        <v>3301</v>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>29,26%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>48,55%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="H49" s="2" t="n">
         <v>2</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>803</v>
+        <v>941</v>
       </c>
       <c r="J49" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>0,09%</t>
         </is>
       </c>
       <c r="K49" s="2" t="inlineStr">
@@ -3850,731 +3850,1214 @@
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>48,53%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="M49" s="2" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N49" s="2" t="n">
-        <v>7769</v>
+        <v>4242</v>
       </c>
       <c r="O49" s="2" t="inlineStr">
         <is>
-          <t>26,72%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>14,76%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
         <is>
-          <t>40,76%</t>
+          <t>0,51%</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n"/>
       <c r="B50" s="3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>159</v>
+        <v>2801</v>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
+          <t>0,13%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>1,07%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G50" s="2" t="inlineStr">
-        <is>
-          <t>3,72%</t>
-        </is>
-      </c>
-      <c r="H50" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" s="2" t="n">
-        <v>769</v>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>14,62%</t>
-        </is>
-      </c>
       <c r="K50" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>53,41%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="M50" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N50" s="2" t="n">
-        <v>929</v>
+        <v>2801</v>
       </c>
       <c r="O50" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,04%</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>0,4%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n"/>
-      <c r="B51" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+      <c r="B51" s="3" t="n">
+        <v>5</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>23809</v>
+        <v>5356</v>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="H51" s="2" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>5263</v>
+        <v>1258</v>
       </c>
       <c r="J51" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="K51" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,02%</t>
         </is>
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="M51" s="2" t="n">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="N51" s="2" t="n">
-        <v>29072</v>
+        <v>6614</v>
       </c>
       <c r="O51" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="P51" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="Q51" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,68%</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>23093</v>
+        <v>1668</v>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="H52" s="2" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>10875</v>
+        <v>615</v>
       </c>
       <c r="J52" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>0,06%</t>
         </is>
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="M52" s="2" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="N52" s="2" t="n">
-        <v>33968</v>
+        <v>2283</v>
       </c>
       <c r="O52" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="P52" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>0,04%</t>
         </is>
       </c>
       <c r="Q52" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>0,4%</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n"/>
       <c r="B53" s="3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>35957</v>
+        <v>3557</v>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>8,78%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="H53" s="2" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>11675</v>
+        <v>877</v>
       </c>
       <c r="J53" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>0,09%</t>
         </is>
       </c>
       <c r="K53" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="M53" s="2" t="n">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="N53" s="2" t="n">
-        <v>47632</v>
+        <v>4434</v>
       </c>
       <c r="O53" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="P53" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="Q53" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>0,5%</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n"/>
       <c r="B54" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>147230</v>
+        <v>6966</v>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>22,83%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>27,35%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="H54" s="2" t="n">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>60179</v>
+        <v>803</v>
       </c>
       <c r="J54" s="2" t="inlineStr">
         <is>
-          <t>24,1%</t>
+          <t>0,08%</t>
         </is>
       </c>
       <c r="K54" s="2" t="inlineStr">
         <is>
-          <t>19,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>30,76%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="M54" s="2" t="n">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="N54" s="2" t="n">
-        <v>207409</v>
+        <v>7769</v>
       </c>
       <c r="O54" s="2" t="inlineStr">
         <is>
-          <t>23,18%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="P54" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="Q54" s="2" t="inlineStr">
         <is>
-          <t>26,68%</t>
+          <t>0,78%</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>84592</v>
+        <v>159</v>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>0,02%</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>16,86%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="H55" s="2" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>36098</v>
+        <v>769</v>
       </c>
       <c r="J55" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="K55" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>24,61%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="M55" s="2" t="n">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="N55" s="2" t="n">
-        <v>120689</v>
+        <v>929</v>
       </c>
       <c r="O55" s="2" t="inlineStr">
         <is>
-          <t>13,49%</t>
+          <t>0,05%</t>
         </is>
       </c>
       <c r="P55" s="2" t="inlineStr">
         <is>
-          <t>10,83%</t>
+          <t>0,01%</t>
         </is>
       </c>
       <c r="Q55" s="2" t="inlineStr">
         <is>
-          <t>16,91%</t>
+          <t>0,18%</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n"/>
       <c r="B56" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>146</v>
+        <v>993</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>190946</v>
+        <v>673945</v>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>29,6%</t>
+          <t>96,59%</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>24,82%</t>
+          <t>95,21%</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>33,55%</t>
+          <t>97,66%</t>
         </is>
       </c>
       <c r="H56" s="2" t="n">
-        <v>75</v>
+        <v>1696</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>65504</v>
+        <v>1021374</v>
       </c>
       <c r="J56" s="2" t="inlineStr">
         <is>
-          <t>26,23%</t>
+          <t>99,49%</t>
         </is>
       </c>
       <c r="K56" s="2" t="inlineStr">
         <is>
-          <t>20,45%</t>
+          <t>99,08%</t>
         </is>
       </c>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>31,98%</t>
+          <t>99,75%</t>
         </is>
       </c>
       <c r="M56" s="2" t="n">
-        <v>221</v>
+        <v>2689</v>
       </c>
       <c r="N56" s="2" t="n">
-        <v>256450</v>
+        <v>1695320</v>
       </c>
       <c r="O56" s="2" t="inlineStr">
         <is>
-          <t>28,66%</t>
+          <t>98,31%</t>
         </is>
       </c>
       <c r="P56" s="2" t="inlineStr">
         <is>
-          <t>24,71%</t>
+          <t>97,73%</t>
         </is>
       </c>
       <c r="Q56" s="2" t="inlineStr">
         <is>
-          <t>32,14%</t>
+          <t>98,8%</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n"/>
-      <c r="B57" s="3" t="n">
-        <v>2</v>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
       </c>
       <c r="C57" s="2" t="n">
-        <v>86</v>
+        <v>1028</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>102376</v>
+        <v>697754</v>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>19,5%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="H57" s="2" t="n">
-        <v>55</v>
+        <v>1708</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>49290</v>
+        <v>1026637</v>
       </c>
       <c r="J57" s="2" t="inlineStr">
         <is>
-          <t>19,74%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K57" s="2" t="inlineStr">
         <is>
-          <t>14,24%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>25,08%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M57" s="2" t="n">
-        <v>141</v>
+        <v>2736</v>
       </c>
       <c r="N57" s="2" t="n">
-        <v>151666</v>
+        <v>1724392</v>
       </c>
       <c r="O57" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P57" s="2" t="inlineStr">
         <is>
-          <t>14,06%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q57" s="2" t="inlineStr">
         <is>
-          <t>19,98%</t>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n"/>
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B58" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>60835</v>
+        <v>23093</v>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>13,2%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="H58" s="2" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>16132</v>
+        <v>10875</v>
       </c>
       <c r="J58" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="K58" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="M58" s="2" t="n">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="N58" s="2" t="n">
-        <v>76967</v>
+        <v>33968</v>
       </c>
       <c r="O58" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="P58" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="Q58" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>0,66%</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n"/>
-      <c r="B59" s="3" t="inlineStr">
+      <c r="B59" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>35957</v>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>1,06%</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>0,7%</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>1,64%</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="I59" s="2" t="n">
+        <v>11675</v>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>0,31%</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>0,15%</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>0,6%</t>
+        </is>
+      </c>
+      <c r="M59" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="N59" s="2" t="n">
+        <v>47632</v>
+      </c>
+      <c r="O59" s="2" t="inlineStr">
+        <is>
+          <t>0,66%</t>
+        </is>
+      </c>
+      <c r="P59" s="2" t="inlineStr">
+        <is>
+          <t>0,46%</t>
+        </is>
+      </c>
+      <c r="Q59" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n"/>
+      <c r="B60" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>147230</v>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>4,35%</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>3,47%</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="inlineStr">
+        <is>
+          <t>5,19%</t>
+        </is>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="I60" s="2" t="n">
+        <v>60179</v>
+      </c>
+      <c r="J60" s="2" t="inlineStr">
+        <is>
+          <t>1,58%</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="inlineStr">
+        <is>
+          <t>1,22%</t>
+        </is>
+      </c>
+      <c r="L60" s="2" t="inlineStr">
+        <is>
+          <t>2,03%</t>
+        </is>
+      </c>
+      <c r="M60" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="N60" s="2" t="n">
+        <v>207409</v>
+      </c>
+      <c r="O60" s="2" t="inlineStr">
+        <is>
+          <t>2,89%</t>
+        </is>
+      </c>
+      <c r="P60" s="2" t="inlineStr">
+        <is>
+          <t>2,46%</t>
+        </is>
+      </c>
+      <c r="Q60" s="2" t="inlineStr">
+        <is>
+          <t>3,41%</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n"/>
+      <c r="B61" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>84592</v>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t>2,5%</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>1,84%</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="inlineStr">
+        <is>
+          <t>3,19%</t>
+        </is>
+      </c>
+      <c r="H61" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="I61" s="2" t="n">
+        <v>36098</v>
+      </c>
+      <c r="J61" s="2" t="inlineStr">
+        <is>
+          <t>0,95%</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="inlineStr">
+        <is>
+          <t>0,59%</t>
+        </is>
+      </c>
+      <c r="L61" s="2" t="inlineStr">
+        <is>
+          <t>1,8%</t>
+        </is>
+      </c>
+      <c r="M61" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="N61" s="2" t="n">
+        <v>120689</v>
+      </c>
+      <c r="O61" s="2" t="inlineStr">
+        <is>
+          <t>1,68%</t>
+        </is>
+      </c>
+      <c r="P61" s="2" t="inlineStr">
+        <is>
+          <t>1,33%</t>
+        </is>
+      </c>
+      <c r="Q61" s="2" t="inlineStr">
+        <is>
+          <t>2,13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n"/>
+      <c r="B62" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>190946</v>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>5,64%</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>4,67%</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="inlineStr">
+        <is>
+          <t>6,85%</t>
+        </is>
+      </c>
+      <c r="H62" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="I62" s="2" t="n">
+        <v>65504</v>
+      </c>
+      <c r="J62" s="2" t="inlineStr">
+        <is>
+          <t>1,72%</t>
+        </is>
+      </c>
+      <c r="K62" s="2" t="inlineStr">
+        <is>
+          <t>1,28%</t>
+        </is>
+      </c>
+      <c r="L62" s="2" t="inlineStr">
+        <is>
+          <t>2,18%</t>
+        </is>
+      </c>
+      <c r="M62" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="N62" s="2" t="n">
+        <v>256450</v>
+      </c>
+      <c r="O62" s="2" t="inlineStr">
+        <is>
+          <t>3,57%</t>
+        </is>
+      </c>
+      <c r="P62" s="2" t="inlineStr">
+        <is>
+          <t>3,08%</t>
+        </is>
+      </c>
+      <c r="Q62" s="2" t="inlineStr">
+        <is>
+          <t>4,14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n"/>
+      <c r="B63" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>102376</v>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>3,02%</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>2,39%</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="inlineStr">
+        <is>
+          <t>3,77%</t>
+        </is>
+      </c>
+      <c r="H63" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="I63" s="2" t="n">
+        <v>49290</v>
+      </c>
+      <c r="J63" s="2" t="inlineStr">
+        <is>
+          <t>1,3%</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="inlineStr">
+        <is>
+          <t>0,98%</t>
+        </is>
+      </c>
+      <c r="L63" s="2" t="inlineStr">
+        <is>
+          <t>1,82%</t>
+        </is>
+      </c>
+      <c r="M63" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="N63" s="2" t="n">
+        <v>151666</v>
+      </c>
+      <c r="O63" s="2" t="inlineStr">
+        <is>
+          <t>2,11%</t>
+        </is>
+      </c>
+      <c r="P63" s="2" t="inlineStr">
+        <is>
+          <t>1,74%</t>
+        </is>
+      </c>
+      <c r="Q63" s="2" t="inlineStr">
+        <is>
+          <t>2,56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n"/>
+      <c r="B64" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>60835</v>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>1,8%</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>1,33%</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="inlineStr">
+        <is>
+          <t>2,48%</t>
+        </is>
+      </c>
+      <c r="H64" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="I64" s="2" t="n">
+        <v>16132</v>
+      </c>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t>0,42%</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="inlineStr">
+        <is>
+          <t>0,24%</t>
+        </is>
+      </c>
+      <c r="L64" s="2" t="inlineStr">
+        <is>
+          <t>0,76%</t>
+        </is>
+      </c>
+      <c r="M64" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="N64" s="2" t="n">
+        <v>76967</v>
+      </c>
+      <c r="O64" s="2" t="inlineStr">
+        <is>
+          <t>1,07%</t>
+        </is>
+      </c>
+      <c r="P64" s="2" t="inlineStr">
+        <is>
+          <t>0,83%</t>
+        </is>
+      </c>
+      <c r="Q64" s="2" t="inlineStr">
+        <is>
+          <t>1,47%</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n"/>
+      <c r="B65" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>2865</v>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>2740039</v>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>80,94%</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>79,11%</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="inlineStr">
+        <is>
+          <t>82,63%</t>
+        </is>
+      </c>
+      <c r="H65" s="2" t="n">
+        <v>5088</v>
+      </c>
+      <c r="I65" s="2" t="n">
+        <v>3553642</v>
+      </c>
+      <c r="J65" s="2" t="inlineStr">
+        <is>
+          <t>93,43%</t>
+        </is>
+      </c>
+      <c r="K65" s="2" t="inlineStr">
+        <is>
+          <t>92,3%</t>
+        </is>
+      </c>
+      <c r="L65" s="2" t="inlineStr">
+        <is>
+          <t>94,26%</t>
+        </is>
+      </c>
+      <c r="M65" s="2" t="n">
+        <v>7953</v>
+      </c>
+      <c r="N65" s="2" t="n">
+        <v>6293682</v>
+      </c>
+      <c r="O65" s="2" t="inlineStr">
+        <is>
+          <t>87,55%</t>
+        </is>
+      </c>
+      <c r="P65" s="2" t="inlineStr">
+        <is>
+          <t>86,56%</t>
+        </is>
+      </c>
+      <c r="Q65" s="2" t="inlineStr">
+        <is>
+          <t>88,63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n"/>
+      <c r="B66" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C59" s="2" t="n">
-        <v>510</v>
-      </c>
-      <c r="D59" s="2" t="n">
-        <v>645029</v>
-      </c>
-      <c r="E59" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F59" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="G59" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H59" s="2" t="n">
-        <v>272</v>
-      </c>
-      <c r="I59" s="2" t="n">
-        <v>249753</v>
-      </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K59" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="L59" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M59" s="2" t="n">
-        <v>782</v>
-      </c>
-      <c r="N59" s="2" t="n">
-        <v>894781</v>
-      </c>
-      <c r="O59" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="P59" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="Q59" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="C66" s="2" t="n">
+        <v>3375</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>3385068</v>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H66" s="2" t="n">
+        <v>5360</v>
+      </c>
+      <c r="I66" s="2" t="n">
+        <v>3803395</v>
+      </c>
+      <c r="J66" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K66" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="L66" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M66" s="2" t="n">
+        <v>8735</v>
+      </c>
+      <c r="N66" s="2" t="n">
+        <v>7188463</v>
+      </c>
+      <c r="O66" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P66" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q66" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
@@ -4582,17 +5065,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A44:A51"/>
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="A22:A30"/>
     <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="A4:A12"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="A49:A57"/>
+    <mergeCell ref="A58:A66"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="A40:A48"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
